--- a/配表/DefaultConfig.xlsx
+++ b/配表/DefaultConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB4051A-7DA1-48EE-8165-BFFFDD923EFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1D88A1-E841-4411-B9E7-E94A6389B9A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,11 +50,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Scene.Menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Scene.Main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scene.Enter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -383,10 +383,13 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -420,7 +423,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -428,7 +431,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>2</v>
